--- a/Figure 1/Figure 1(e)/Phone_users.xlsx
+++ b/Figure 1/Figure 1(e)/Phone_users.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leona\Desktop\no-one-is-a-group\Fig3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leona\Desktop\No One is a Group Software Repository\Figure 1\Figure 1(e)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{500ED56D-D055-4CD6-990E-50B4D88B58C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E995AFB4-E278-471F-8318-387A07E14C76}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{85ED3568-5097-4564-82B1-44AE310D59CB}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{85ED3568-5097-4564-82B1-44AE310D59CB}"/>
   </bookViews>
   <sheets>
     <sheet name="boxplot" sheetId="12" r:id="rId1"/>
@@ -4410,6 +4410,7 @@
           </cx:tx>
           <cx:dataId val="0"/>
           <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
@@ -4422,6 +4423,7 @@
           </cx:tx>
           <cx:dataId val="1"/>
           <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
@@ -4434,6 +4436,7 @@
           </cx:tx>
           <cx:dataId val="2"/>
           <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
@@ -4446,6 +4449,7 @@
           </cx:tx>
           <cx:dataId val="3"/>
           <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
@@ -4458,6 +4462,7 @@
           </cx:tx>
           <cx:dataId val="4"/>
           <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
@@ -4470,6 +4475,7 @@
           </cx:tx>
           <cx:dataId val="5"/>
           <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
@@ -4482,6 +4488,7 @@
           </cx:tx>
           <cx:dataId val="6"/>
           <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
@@ -4506,6 +4513,7 @@
           </cx:tx>
           <cx:dataId val="8"/>
           <cx:layoutPr>
+            <cx:visibility meanMarker="1" nonoutliers="0" outliers="0"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
@@ -4518,6 +4526,7 @@
           </cx:tx>
           <cx:dataId val="9"/>
           <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
@@ -4530,6 +4539,7 @@
           </cx:tx>
           <cx:dataId val="10"/>
           <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
@@ -4542,6 +4552,7 @@
           </cx:tx>
           <cx:dataId val="11"/>
           <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
@@ -4554,6 +4565,7 @@
           </cx:tx>
           <cx:dataId val="12"/>
           <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
@@ -4566,6 +4578,7 @@
           </cx:tx>
           <cx:dataId val="13"/>
           <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
@@ -4578,6 +4591,7 @@
           </cx:tx>
           <cx:dataId val="14"/>
           <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
@@ -4590,6 +4604,7 @@
           </cx:tx>
           <cx:dataId val="15"/>
           <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
@@ -4602,6 +4617,7 @@
           </cx:tx>
           <cx:dataId val="16"/>
           <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
@@ -4614,6 +4630,7 @@
           </cx:tx>
           <cx:dataId val="17"/>
           <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
@@ -4626,6 +4643,7 @@
           </cx:tx>
           <cx:dataId val="18"/>
           <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
@@ -4638,6 +4656,7 @@
           </cx:tx>
           <cx:dataId val="19"/>
           <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
@@ -4650,6 +4669,7 @@
           </cx:tx>
           <cx:dataId val="20"/>
           <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
@@ -4662,6 +4682,7 @@
           </cx:tx>
           <cx:dataId val="21"/>
           <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
@@ -4674,6 +4695,7 @@
           </cx:tx>
           <cx:dataId val="22"/>
           <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
@@ -4686,6 +4708,7 @@
           </cx:tx>
           <cx:dataId val="23"/>
           <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
@@ -4698,6 +4721,7 @@
           </cx:tx>
           <cx:dataId val="24"/>
           <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
@@ -4710,6 +4734,7 @@
           </cx:tx>
           <cx:dataId val="25"/>
           <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
@@ -4722,6 +4747,7 @@
           </cx:tx>
           <cx:dataId val="26"/>
           <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
@@ -4734,6 +4760,7 @@
           </cx:tx>
           <cx:dataId val="27"/>
           <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
@@ -4746,6 +4773,7 @@
           </cx:tx>
           <cx:dataId val="28"/>
           <cx:layoutPr>
+            <cx:visibility nonoutliers="0"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
@@ -4762,12 +4790,12 @@
           </cx:layoutPr>
         </cx:series>
       </cx:plotAreaRegion>
-      <cx:axis id="0">
-        <cx:catScaling gapWidth="1"/>
+      <cx:axis id="0" hidden="1">
+        <cx:catScaling gapWidth="0"/>
         <cx:tickLabels/>
       </cx:axis>
       <cx:axis id="1">
-        <cx:valScaling/>
+        <cx:valScaling max="100"/>
         <cx:majorGridlines/>
         <cx:tickLabels/>
       </cx:axis>
@@ -5380,8 +5408,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="20678486" y="93080753"/>
-              <a:ext cx="6118514" cy="4121872"/>
+              <a:off x="20802311" y="88432553"/>
+              <a:ext cx="6131214" cy="3909147"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5763,8 +5791,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:AN516"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A446" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="T488" sqref="T488"/>
+    <sheetView tabSelected="1" topLeftCell="A435" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AK513" sqref="AK513"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
